--- a/data/output/Pedido_Semana_07_21022026_mascotas_manufacturado.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_mascotas_manufacturado.xlsx
@@ -909,16 +909,16 @@
         <v>2</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" hidden="1">
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="8" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="2" t="n">
         <v>0</v>
@@ -3744,13 +3744,13 @@
         <v>0</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S40" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T40" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U40" s="8" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>2301090135</t>
@@ -3987,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T43" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>2201010003</t>
@@ -4473,16 +4473,16 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" hidden="1">
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="2" t="n">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S53" s="2" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S54" s="2" t="n">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S61" s="2" t="n">
         <v>0</v>
@@ -5850,7 +5850,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S66" s="2" t="n">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>0</v>
@@ -6498,16 +6498,16 @@
         <v>2</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T74" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" hidden="1">
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S91" s="2" t="n">
         <v>0</v>
@@ -8199,16 +8199,16 @@
         <v>2</v>
       </c>
       <c r="R95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T95" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" hidden="1">
@@ -8280,13 +8280,13 @@
         <v>0</v>
       </c>
       <c r="R96" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T96" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U96" s="8" t="n">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>2404030021</t>
@@ -8685,16 +8685,16 @@
         <v>0</v>
       </c>
       <c r="R101" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S101" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T101" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U101" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" hidden="1">
@@ -8766,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="R102" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S102" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T102" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U102" s="8" t="n">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="R108" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S108" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T108" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U108" s="8" t="n">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="R109" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S109" s="2" t="n">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="R110" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S110" s="2" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="R111" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S111" s="2" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="R112" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112" s="2" t="n">
         <v>0</v>
@@ -9738,13 +9738,13 @@
         <v>0</v>
       </c>
       <c r="R114" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T114" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U114" s="8" t="n">
         <v>0</v>
@@ -9819,13 +9819,13 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T115" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115" s="8" t="n">
         <v>0</v>
@@ -10062,13 +10062,13 @@
         <v>0</v>
       </c>
       <c r="R118" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S118" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T118" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U118" s="8" t="n">
         <v>0</v>
@@ -10143,13 +10143,13 @@
         <v>0</v>
       </c>
       <c r="R119" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S119" s="2" t="n">
         <v>24</v>
       </c>
       <c r="T119" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U119" s="8" t="n">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="R120" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S120" s="2" t="n">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="R121" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S121" s="2" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>2</v>
       </c>
       <c r="R122" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S122" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T122" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U122" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -10467,7 +10467,7 @@
         <v>2</v>
       </c>
       <c r="R123" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S123" s="2" t="n">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>7</v>
       </c>
       <c r="R124" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" s="2" t="n">
         <v>0</v>
@@ -10710,13 +10710,13 @@
         <v>0</v>
       </c>
       <c r="R126" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S126" s="2" t="n">
         <v>16</v>
       </c>
       <c r="T126" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U126" s="8" t="n">
         <v>0</v>
@@ -10953,13 +10953,13 @@
         <v>0</v>
       </c>
       <c r="R129" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S129" s="2" t="n">
         <v>14</v>
       </c>
       <c r="T129" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U129" s="8" t="n">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>4</v>
       </c>
       <c r="R130" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S130" s="2" t="n">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>2</v>
       </c>
       <c r="R131" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S131" s="2" t="n">
         <v>0</v>
@@ -11196,13 +11196,13 @@
         <v>0</v>
       </c>
       <c r="R132" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T132" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U132" s="8" t="n">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         <v>7</v>
       </c>
       <c r="R133" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S133" s="2" t="n">
         <v>0</v>
@@ -11358,7 +11358,7 @@
         <v>4</v>
       </c>
       <c r="R134" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S134" s="2" t="n">
         <v>0</v>
@@ -11763,13 +11763,13 @@
         <v>0</v>
       </c>
       <c r="R139" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T139" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" s="8" t="n">
         <v>0</v>
@@ -11844,13 +11844,13 @@
         <v>0</v>
       </c>
       <c r="R140" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T140" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" s="8" t="n">
         <v>0</v>
@@ -12249,13 +12249,13 @@
         <v>0</v>
       </c>
       <c r="R145" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S145" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T145" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U145" s="8" t="n">
         <v>0</v>
@@ -12816,13 +12816,13 @@
         <v>0</v>
       </c>
       <c r="R152" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S152" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T152" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U152" s="8" t="n">
         <v>0</v>
@@ -12897,16 +12897,16 @@
         <v>3</v>
       </c>
       <c r="R153" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S153" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T153" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U153" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" hidden="1">
@@ -13221,7 +13221,7 @@
         <v>2</v>
       </c>
       <c r="R157" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S157" s="2" t="n">
         <v>0</v>
@@ -13302,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="R158" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158" s="2" t="n">
         <v>0</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="R161" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S161" s="2" t="n">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="R162" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S162" s="2" t="n">
         <v>0</v>
@@ -14031,13 +14031,13 @@
         <v>0</v>
       </c>
       <c r="R167" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S167" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T167" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U167" s="8" t="n">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>2</v>
       </c>
       <c r="R172" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S172" s="2" t="n">
         <v>0</v>
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="R175" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S175" s="2" t="n">
         <v>0</v>
@@ -14760,13 +14760,13 @@
         <v>0</v>
       </c>
       <c r="R176" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S176" s="2" t="n">
         <v>6</v>
       </c>
       <c r="T176" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U176" s="8" t="n">
         <v>0</v>
@@ -15084,13 +15084,13 @@
         <v>0</v>
       </c>
       <c r="R180" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S180" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T180" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U180" s="8" t="n">
         <v>0</v>
@@ -15570,16 +15570,16 @@
         <v>1</v>
       </c>
       <c r="R186" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S186" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T186" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U186" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" hidden="1">
@@ -15894,13 +15894,13 @@
         <v>0</v>
       </c>
       <c r="R190" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S190" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T190" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U190" s="8" t="n">
         <v>0</v>
@@ -15975,13 +15975,13 @@
         <v>0</v>
       </c>
       <c r="R191" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S191" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T191" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U191" s="8" t="n">
         <v>0</v>
@@ -16056,13 +16056,13 @@
         <v>0</v>
       </c>
       <c r="R192" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S192" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T192" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U192" s="8" t="n">
         <v>0</v>
@@ -16137,13 +16137,13 @@
         <v>0</v>
       </c>
       <c r="R193" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S193" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T193" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U193" s="8" t="n">
         <v>0</v>
@@ -16218,13 +16218,13 @@
         <v>0</v>
       </c>
       <c r="R194" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S194" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T194" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U194" s="8" t="n">
         <v>0</v>
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
       <c r="R195" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S195" s="2" t="n">
         <v>0</v>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="R196" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S196" s="2" t="n">
         <v>0</v>
@@ -16461,13 +16461,13 @@
         <v>0</v>
       </c>
       <c r="R197" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S197" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T197" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U197" s="8" t="n">
         <v>0</v>
@@ -16542,13 +16542,13 @@
         <v>0</v>
       </c>
       <c r="R198" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S198" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T198" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U198" s="8" t="n">
         <v>0</v>
@@ -16623,13 +16623,13 @@
         <v>0</v>
       </c>
       <c r="R199" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S199" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T199" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U199" s="8" t="n">
         <v>0</v>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="R206" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S206" s="2" t="n">
         <v>0</v>
@@ -17217,7 +17217,7 @@
         </is>
       </c>
       <c r="C209" s="5" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210">
